--- a/JavaWD8AMFEB23/src/filehandling/DummyData.xlsx
+++ b/JavaWD8AMFEB23/src/filehandling/DummyData.xlsx
@@ -3,22 +3,22 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SEL_WD_8AM_7FEB23\JavaWD8AMFEB23\src\filehandling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91FE253F-975D-4329-AC38-15E08BE159B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A610969-FA78-4D81-94D8-4798B7137F3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="dummyData" r:id="rId5" sheetId="2"/>
+    <sheet name="dummyData" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -26,19 +26,51 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>TestData</t>
   </si>
   <si>
     <t>TestData2</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Firstname</t>
+  </si>
+  <si>
+    <t>lastname</t>
+  </si>
+  <si>
+    <t>department</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>User1</t>
+  </si>
+  <si>
+    <t>QA</t>
+  </si>
+  <si>
+    <t>User2</t>
+  </si>
+  <si>
+    <t>Dev</t>
+  </si>
+  <si>
+    <t>User3</t>
+  </si>
+  <si>
+    <t>Manager</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -349,38 +381,98 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="14.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>101</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>102</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>103</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>